--- a/Datasets/K01_num_days_correct.xlsx
+++ b/Datasets/K01_num_days_correct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corinaramont/galloway_lab/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AE3FC0-5AAA-7F48-A2ED-4605AC5D9737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6BB362E-FB46-A74F-9A6D-430573CCDA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="980" yWindow="760" windowWidth="29260" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
@@ -595,9 +595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -613,7 +613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="304800" y="533400"/>
-          <a:ext cx="11303000" cy="7086600"/>
+          <a:ext cx="11328400" cy="8051800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,7 +649,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="2800" baseline="0"/>
-            <a:t>This contains the patient's information, the antibiotic administered, and the total number of days they were receiving the antibiotic. </a:t>
+            <a:t>This contains the patient's information, the antibiotic administered, and the total number of days they were receiving the antibiotic from using the pulsed and censored admin data. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1017,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I625"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A83" zoomScale="125" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="H628" sqref="H628"/>
     </sheetView>
   </sheetViews>
